--- a/DbLayouts/L3-帳務作業/LoanBook.xlsx
+++ b/DbLayouts/L3-帳務作業/LoanBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DA2044-E9FD-4DD6-9B62-EA0CD31FA8EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61B368-C260-4384-9712-E000EF5DED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
   <si>
     <t>備註說明</t>
   </si>
@@ -79,9 +79,6 @@
     <t>撥款序號</t>
   </si>
   <si>
-    <t>約定還本日期</t>
-  </si>
-  <si>
     <t>狀態</t>
   </si>
   <si>
@@ -273,6 +270,36 @@
   </si>
   <si>
     <t>BookAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定還本日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際還本日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否內含利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息是否可欠繳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncludeIntFlag</t>
+  </si>
+  <si>
+    <t>UnpaidIntFlag</t>
+  </si>
+  <si>
+    <t>ActualDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +547,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -878,14 +908,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="5"/>
@@ -898,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="5"/>
@@ -906,14 +936,14 @@
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="5"/>
@@ -921,14 +951,14 @@
     </row>
     <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="5"/>
@@ -936,7 +966,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="7"/>
@@ -947,7 +977,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="7"/>
@@ -958,7 +988,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="7"/>
@@ -996,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
         <v>7</v>
@@ -1015,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4">
         <v>3</v>
@@ -1030,197 +1060,256 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A20" si="0">A10+1</f>
+        <f t="shared" ref="A11:A23" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>A10+1</f>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4">
         <v>8</v>
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A11+1</f>
+        <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>A13+1</f>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>10</v>
+        <f>A15+1</f>
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
       </c>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="E19" s="4">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="B23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="4">
         <v>6</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1257,7 +1346,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -1268,43 +1357,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L3-帳務作業/LoanBook.xlsx
+++ b/DbLayouts/L3-帳務作業/LoanBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F61B368-C260-4384-9712-E000EF5DED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2E19E4-BAE6-4FAE-B85C-F64C6F6993B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,7 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>備註說明</t>
   </si>
@@ -249,11 +250,61 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo &gt;= ,AND CustNo &lt;= ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;=</t>
+    <t>bookBormNoFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo asc,FacmNo asc,BormNo asc,BookDate asc</t>
+    <t>bookBormNoRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定還本日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際還本日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否內含利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利息是否可欠繳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncludeIntFlag</t>
+  </si>
+  <si>
+    <t>UnpaidIntFlag</t>
+  </si>
+  <si>
+    <t>ActualDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>facmNoLastBookDateFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookDate desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookDate asc</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -261,45 +312,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bookBormNoFirst</t>
+    <t>CustNo &gt;= ,AND CustNo &lt;= ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND BookDate &gt;=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bookBormNoRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BookAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>約定還本日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際還本日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否內含利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利息是否可欠繳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IncludeIntFlag</t>
-  </si>
-  <si>
-    <t>UnpaidIntFlag</t>
-  </si>
-  <si>
-    <t>ActualDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入帳日期</t>
+    <t>繳納方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PayMethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+PayMethod
+1:減少每期攤還金額
+2:縮短應繳期數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,6 +558,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -547,9 +578,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,28 +917,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="11" t="s">
         <v>46</v>
       </c>
@@ -922,8 +950,8 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
@@ -935,10 +963,10 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="14" t="s">
         <v>55</v>
       </c>
@@ -950,10 +978,10 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="14" t="s">
         <v>50</v>
       </c>
@@ -965,10 +993,10 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="7"/>
       <c r="D5" s="19"/>
       <c r="E5" s="17"/>
@@ -976,10 +1004,10 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="7"/>
       <c r="D6" s="19"/>
       <c r="E6" s="17"/>
@@ -987,10 +1015,10 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="7"/>
       <c r="D7" s="19"/>
       <c r="E7" s="18"/>
@@ -1060,7 +1088,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f t="shared" ref="A11:A23" si="0">A10+1</f>
+        <f t="shared" ref="A11:A24" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1086,7 +1114,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>51</v>
@@ -1102,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>51</v>
@@ -1113,8 +1141,8 @@
       <c r="E13" s="4">
         <v>8</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>73</v>
+      <c r="G13" s="21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -1165,10 +1193,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>45</v>
@@ -1184,10 +1212,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>45</v>
@@ -1203,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>17</v>
@@ -1241,21 +1269,26 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>29</v>
+      <c r="B20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1263,18 +1296,15 @@
         <v>10</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6</v>
-      </c>
-      <c r="G21" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1282,13 +1312,16 @@
         <v>11</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -1298,18 +1331,34 @@
         <v>12</v>
       </c>
       <c r="B23" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E24" s="4">
         <v>6</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1329,17 +1378,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="3" customWidth="1"/>
-    <col min="2" max="2" width="92.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="101" style="3" customWidth="1"/>
     <col min="3" max="3" width="51" style="3" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
@@ -1365,7 +1414,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>56</v>
@@ -1376,7 +1425,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>57</v>
@@ -1387,13 +1436,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
